--- a/artefakte/Sprint_Backlog.xlsx
+++ b/artefakte/Sprint_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKAN117\Documents\VSCWorkspaces\Srum-Master-CC\common\project\bitcoin_candles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKAN117\Documents\VSCWorkspaces\Agiles-Projektmanagement-Scrum-1\artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014E6CAE-2E5A-4230-8B0A-07D3498DB91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF5E6F-48B8-495B-89CE-C6919CC5117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29535" yWindow="315" windowWidth="26115" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintbacklogs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Kick-OFF</t>
   </si>
@@ -240,6 +240,18 @@
   </si>
   <si>
     <t>erfolgreich +-2</t>
+  </si>
+  <si>
+    <t>database.py</t>
+  </si>
+  <si>
+    <t>data_collector.py</t>
+  </si>
+  <si>
+    <t>load_database.py</t>
+  </si>
+  <si>
+    <t>dat</t>
   </si>
 </sst>
 </file>
@@ -352,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +405,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -675,13 +688,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="117.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="55.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="52.140625" style="1" bestFit="1" customWidth="1"/>
@@ -797,13 +810,31 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="16"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
@@ -876,7 +907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9B29BF-A3A9-4EB9-887E-E9CB3E3F3AC1}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/artefakte/Sprint_Backlog.xlsx
+++ b/artefakte/Sprint_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SKAN117\Documents\VSCWorkspaces\Agiles-Projektmanagement-Scrum-1\artefakte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EF5E6F-48B8-495B-89CE-C6919CC5117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A3C29-E0D9-41E5-AC19-87E78F515B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1935" yWindow="330" windowWidth="29835" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprintbacklogs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Kick-OFF</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Implementation der Analyselogik</t>
   </si>
   <si>
-    <t>Testframework für Mustererkennungsgenauigkeit</t>
-  </si>
-  <si>
     <t>Dokumentation der erkannten Muster</t>
   </si>
   <si>
@@ -110,18 +107,6 @@
   </si>
   <si>
     <t>Definition of Done</t>
-  </si>
-  <si>
-    <t>- Code ist getestet</t>
-  </si>
-  <si>
-    <t>- Code ist dokumentiert</t>
-  </si>
-  <si>
-    <t>- Code Review durchgeführt</t>
-  </si>
-  <si>
-    <t>- Alle Tests erfolgreich</t>
   </si>
   <si>
     <t>Sprintretrospektive. -</t>
@@ -251,7 +236,37 @@
     <t>load_database.py</t>
   </si>
   <si>
-    <t>dat</t>
+    <t>[Testframework für Mustererkennungsgenauigkeit]</t>
+  </si>
+  <si>
+    <t>data_processor.py</t>
+  </si>
+  <si>
+    <t>Code ist getestet</t>
+  </si>
+  <si>
+    <t>Code ist dokumentiert</t>
+  </si>
+  <si>
+    <t>Code Review durchgeführt</t>
+  </si>
+  <si>
+    <t>Alle Tests erfolgreich</t>
+  </si>
+  <si>
+    <t>Projektordner: Inkrement_1</t>
+  </si>
+  <si>
+    <t>Alle Tests erfolgreich: TODO</t>
+  </si>
+  <si>
+    <t>Projektordner: Inkrement_2</t>
+  </si>
+  <si>
+    <t>Code ist dokumentiert TODO</t>
+  </si>
+  <si>
+    <t>Sprintbesprechung: 11:50 Uhr bis 12:20 Uhr</t>
   </si>
 </sst>
 </file>
@@ -364,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,7 +420,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -689,7 +703,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
@@ -759,7 +773,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,29 +784,29 @@
         <v>18</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
+      <c r="C7" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,65 +820,98 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
-        <v>46</v>
-      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="16" t="s">
-        <v>47</v>
-      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="B14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="B15"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="B16"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
@@ -881,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>1</v>
@@ -889,7 +936,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>7</v>
@@ -900,6 +947,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -921,44 +969,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
